--- a/Jupyter/simulationID/cim_0324_0620/data/bldg/before_215_22.xlsx
+++ b/Jupyter/simulationID/cim_0324_0620/data/bldg/before_215_22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="17">
   <si>
     <t>appUnits</t>
   </si>
@@ -49,10 +49,22 @@
     <t>status</t>
   </si>
   <si>
+    <t>renewd</t>
+  </si>
+  <si>
+    <t>PlanID</t>
+  </si>
+  <si>
+    <t>iteration</t>
+  </si>
+  <si>
     <t>215_22</t>
   </si>
   <si>
     <t>Old Building</t>
+  </si>
+  <si>
+    <t>before</t>
   </si>
 </sst>
 </file>
@@ -410,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,8 +462,17 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -462,7 +483,7 @@
         <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>19108.33333333334</v>
@@ -486,10 +507,19 @@
         <v>578.3504</v>
       </c>
       <c r="L2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2">
+        <v>20140882</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -500,7 +530,7 @@
         <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>19108.33333333334</v>
@@ -524,10 +554,19 @@
         <v>578.3504</v>
       </c>
       <c r="L3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3">
+        <v>20140882</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -538,7 +577,7 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>19108.33333333334</v>
@@ -562,10 +601,19 @@
         <v>578.3504</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4">
+        <v>20140882</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -576,7 +624,7 @@
         <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>19108.33333333334</v>
@@ -600,10 +648,19 @@
         <v>578.3504</v>
       </c>
       <c r="L5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <v>20140882</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -614,7 +671,7 @@
         <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>19108.33333333334</v>
@@ -638,10 +695,19 @@
         <v>578.3504</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6">
+        <v>20140882</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -652,7 +718,7 @@
         <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>19108.33333333334</v>
@@ -676,10 +742,19 @@
         <v>578.3504</v>
       </c>
       <c r="L7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7">
+        <v>20140882</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -690,7 +765,7 @@
         <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>19108.33333333334</v>
@@ -714,10 +789,19 @@
         <v>578.3504</v>
       </c>
       <c r="L8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8">
+        <v>20140882</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -728,7 +812,7 @@
         <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>19108.33333333334</v>
@@ -752,10 +836,19 @@
         <v>578.3504</v>
       </c>
       <c r="L9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9">
+        <v>20140882</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -766,7 +859,7 @@
         <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>19108.33333333334</v>
@@ -790,10 +883,19 @@
         <v>578.3504</v>
       </c>
       <c r="L10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>20140882</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -804,7 +906,7 @@
         <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>19108.33333333334</v>
@@ -828,10 +930,19 @@
         <v>578.3504</v>
       </c>
       <c r="L11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11">
+        <v>20140882</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -842,7 +953,7 @@
         <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>19108.33333333334</v>
@@ -866,10 +977,19 @@
         <v>578.3504</v>
       </c>
       <c r="L12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M12" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12">
+        <v>20140882</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -880,7 +1000,7 @@
         <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>19108.33333333334</v>
@@ -904,10 +1024,19 @@
         <v>578.3504</v>
       </c>
       <c r="L13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13">
+        <v>20140882</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -918,7 +1047,7 @@
         <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>19108.33333333334</v>
@@ -942,10 +1071,19 @@
         <v>578.3504</v>
       </c>
       <c r="L14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M14" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14">
+        <v>20140882</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -956,7 +1094,7 @@
         <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>19108.33333333334</v>
@@ -980,10 +1118,19 @@
         <v>578.3504</v>
       </c>
       <c r="L15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15">
+        <v>20140882</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -994,7 +1141,7 @@
         <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>19108.33333333334</v>
@@ -1018,10 +1165,19 @@
         <v>578.3504</v>
       </c>
       <c r="L16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M16" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16">
+        <v>20140882</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1032,7 +1188,7 @@
         <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>19108.33333333334</v>
@@ -1056,10 +1212,19 @@
         <v>578.3504</v>
       </c>
       <c r="L17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17">
+        <v>20140882</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1070,7 +1235,7 @@
         <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>19108.33333333334</v>
@@ -1094,10 +1259,19 @@
         <v>578.3504</v>
       </c>
       <c r="L18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>15</v>
+      </c>
+      <c r="M18" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18">
+        <v>20140882</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1108,7 +1282,7 @@
         <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>19108.33333333334</v>
@@ -1132,7 +1306,16 @@
         <v>578.3504</v>
       </c>
       <c r="L19" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="M19" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19">
+        <v>20140882</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
